--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,30 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="文泉驿点阵正黑"/>
+            <family val="0"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">list表的第一行第一个自动有sheet_name的话，这一行只是用来提示功能，第二列是unique_index唯一索引，multi_index不唯一所有，check用来检查列关联到的表数据是否存在</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -137,7 +161,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="221">
+  <si>
+    <t xml:space="preserve">sheet_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check</t>
+  </si>
   <si>
     <t xml:space="preserve">Room</t>
   </si>
@@ -151,6 +187,9 @@
     <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
+    <t xml:space="preserve">gameId:Fish.Room.gameId;roomId:Fish.Room.roomId</t>
+  </si>
+  <si>
     <t xml:space="preserve">CtrlLevel</t>
   </si>
   <si>
@@ -187,19 +226,19 @@
     <t xml:space="preserve">maxPeople</t>
   </si>
   <si>
-    <t xml:space="preserve">enter_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enter_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auto_chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_exp_scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">exp_scene_gold</t>
+    <t xml:space="preserve">enterMin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enterMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autoChair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isExpScene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expSceneGold</t>
   </si>
   <si>
     <t xml:space="preserve">tax</t>
@@ -1946,43 +1985,62 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="9.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1993,6 +2051,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2003,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2027,152 +2086,152 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2236,7 +2295,7 @@
         <v>2004</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -2245,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>4</v>
@@ -2286,7 +2345,7 @@
         <v>2004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -2295,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>4</v>
@@ -2336,7 +2395,7 @@
         <v>2004</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -2345,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>4</v>
@@ -2386,7 +2445,7 @@
         <v>2004</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -2395,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>4</v>
@@ -2467,7 +2526,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2481,53 +2540,53 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2549,852 +2608,852 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C8" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C9" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C10" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C15" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C16" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C18" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C19" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C20" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C21" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C23" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C24" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C25" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C26" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C27" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C28" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C29" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C31" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C32" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C33" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C34" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C35" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C36" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C37" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C38" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C39" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C40" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C41" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C42" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C43" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C44" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C45" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C46" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="16" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C47" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C48" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C49" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="16" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C50" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="16" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C51" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C52" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C53" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="16" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C54" s="16" t="n">
         <v>2001</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3462,35 +3521,35 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3506,123 +3565,123 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3698,143 +3757,143 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O3" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3886,25 +3945,25 @@
     </row>
     <row r="5" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0</v>
@@ -3933,25 +3992,25 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0</v>
@@ -3980,25 +4039,25 @@
     </row>
     <row r="7" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0</v>
@@ -4027,25 +4086,25 @@
     </row>
     <row r="8" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0</v>
@@ -4074,25 +4133,25 @@
     </row>
     <row r="9" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0</v>
@@ -4121,25 +4180,25 @@
     </row>
     <row r="10" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
@@ -4168,25 +4227,25 @@
     </row>
     <row r="11" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>0</v>
@@ -4215,25 +4274,25 @@
     </row>
     <row r="12" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>0</v>
@@ -4262,25 +4321,25 @@
     </row>
     <row r="13" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0</v>
@@ -4309,25 +4368,25 @@
     </row>
     <row r="14" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0</v>
@@ -4356,25 +4415,25 @@
     </row>
     <row r="15" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0</v>
@@ -4403,25 +4462,25 @@
     </row>
     <row r="16" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0</v>
@@ -4450,25 +4509,25 @@
     </row>
     <row r="17" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>0</v>
@@ -4497,25 +4556,25 @@
     </row>
     <row r="18" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H18" s="34" t="n">
         <v>0</v>
@@ -4544,25 +4603,25 @@
     </row>
     <row r="19" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H19" s="34" t="n">
         <v>0</v>
@@ -4591,25 +4650,25 @@
     </row>
     <row r="20" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H20" s="34" t="n">
         <v>0</v>
@@ -4638,25 +4697,25 @@
     </row>
     <row r="21" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H21" s="34" t="n">
         <v>0</v>
@@ -4685,25 +4744,25 @@
     </row>
     <row r="22" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H22" s="34" t="n">
         <v>0</v>
@@ -4732,25 +4791,25 @@
     </row>
     <row r="23" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="36" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H23" s="34" t="n">
         <v>0</v>
@@ -4779,25 +4838,25 @@
     </row>
     <row r="24" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H24" s="34" t="n">
         <v>0</v>
@@ -4826,25 +4885,25 @@
     </row>
     <row r="25" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H25" s="34" t="n">
         <v>0</v>
@@ -4873,25 +4932,25 @@
     </row>
     <row r="26" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="36" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H26" s="34" t="n">
         <v>0</v>
@@ -4920,25 +4979,25 @@
     </row>
     <row r="27" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H27" s="34" t="n">
         <v>0</v>
@@ -4967,25 +5026,25 @@
     </row>
     <row r="28" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H28" s="34" t="n">
         <v>0</v>
@@ -5014,25 +5073,25 @@
     </row>
     <row r="29" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H29" s="34" t="n">
         <v>0</v>
@@ -5061,25 +5120,25 @@
     </row>
     <row r="30" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H30" s="34" t="n">
         <v>0</v>
@@ -5108,25 +5167,25 @@
     </row>
     <row r="31" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H31" s="34" t="n">
         <v>0</v>
@@ -5155,28 +5214,28 @@
     </row>
     <row r="32" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="36" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I32" s="34" t="n">
         <v>0</v>
@@ -5202,28 +5261,28 @@
     </row>
     <row r="33" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I33" s="34" t="n">
         <v>0</v>
@@ -5241,39 +5300,39 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J34" s="34" t="n">
         <v>0</v>
@@ -5288,42 +5347,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="36" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K35" s="34" t="n">
         <v>0</v>
@@ -5335,80 +5394,80 @@
         <v>0</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M36" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>109</v>
-      </c>
       <c r="G37" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H37" s="34" t="n">
         <v>0</v>
@@ -5429,33 +5488,33 @@
         <v>0</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H38" s="34" t="n">
         <v>0</v>
@@ -5476,33 +5535,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H39" s="34" t="n">
         <v>0</v>
@@ -5523,33 +5582,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H40" s="34" t="n">
         <v>0</v>
@@ -5570,33 +5629,33 @@
         <v>0</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H41" s="34" t="n">
         <v>0</v>
@@ -5625,25 +5684,25 @@
     </row>
     <row r="42" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H42" s="34" t="n">
         <v>0</v>
@@ -5672,25 +5731,25 @@
     </row>
     <row r="43" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H43" s="34" t="n">
         <v>0</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
-    <t xml:space="preserve">gameId:Fish.Room.gameId;roomId:Fish.Room.roomId</t>
+    <t xml:space="preserve">gameId:Fish.Room;roomId:Fish.Room</t>
   </si>
   <si>
     <t xml:space="preserve">CtrlLevel</t>
@@ -1987,8 +1987,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,8 +2062,8 @@
   </sheetPr>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="212">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
-    <t xml:space="preserve">gameroomId:Fish.Room;x_id:Fish.Room</t>
+    <t xml:space="preserve">gameroomId:Fish.Room;x_id:Fish.Room;y.id:Fish.Room;y.num:Fish.Room</t>
   </si>
   <si>
     <t xml:space="preserve">CtrlLevel</t>
@@ -448,6 +448,12 @@
     <t xml:space="preserve">x_id</t>
   </si>
   <si>
+    <t xml:space="preserve">y_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y_num</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -574,6 +580,12 @@
   </si>
   <si>
     <t xml:space="preserve">游房2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游房间2id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">游房间2num</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -2536,10 +2548,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2548,8 +2560,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2577,31 +2589,55 @@
       <c r="H1" s="11" t="s">
         <v>54</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2629,6 +2665,18 @@
       <c r="H3" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="I3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" s="16" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="15" t="n">
@@ -2655,1045 +2703,1537 @@
       <c r="H4" s="15" t="n">
         <v>3</v>
       </c>
+      <c r="I4" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C7" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C9" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C10" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C11" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C12" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C14" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C16" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C17" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C18" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C20" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C21" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C22" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C23" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C24" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C25" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C26" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C27" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C29" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C30" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C31" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C32" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C33" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C34" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C35" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C36" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C37" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C38" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C39" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C40" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C41" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J41" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C43" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C44" s="17" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3761,24 +4301,24 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3805,123 +4345,123 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3997,96 +4537,96 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M1" s="24" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O1" s="24" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K2" s="27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L2" s="27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O2" s="27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4185,25 +4725,25 @@
     </row>
     <row r="5" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H5" s="35" t="n">
         <v>0</v>
@@ -4232,25 +4772,25 @@
     </row>
     <row r="6" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H6" s="35" t="n">
         <v>0</v>
@@ -4279,25 +4819,25 @@
     </row>
     <row r="7" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H7" s="35" t="n">
         <v>0</v>
@@ -4326,25 +4866,25 @@
     </row>
     <row r="8" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H8" s="35" t="n">
         <v>0</v>
@@ -4373,25 +4913,25 @@
     </row>
     <row r="9" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H9" s="35" t="n">
         <v>0</v>
@@ -4420,25 +4960,25 @@
     </row>
     <row r="10" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="35" t="n">
         <v>0</v>
@@ -4467,25 +5007,25 @@
     </row>
     <row r="11" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H11" s="35" t="n">
         <v>0</v>
@@ -4514,25 +5054,25 @@
     </row>
     <row r="12" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H12" s="35" t="n">
         <v>0</v>
@@ -4561,25 +5101,25 @@
     </row>
     <row r="13" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H13" s="35" t="n">
         <v>0</v>
@@ -4608,25 +5148,25 @@
     </row>
     <row r="14" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H14" s="35" t="n">
         <v>0</v>
@@ -4655,25 +5195,25 @@
     </row>
     <row r="15" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H15" s="35" t="n">
         <v>0</v>
@@ -4702,25 +5242,25 @@
     </row>
     <row r="16" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H16" s="35" t="n">
         <v>0</v>
@@ -4749,25 +5289,25 @@
     </row>
     <row r="17" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H17" s="35" t="n">
         <v>0</v>
@@ -4796,25 +5336,25 @@
     </row>
     <row r="18" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H18" s="35" t="n">
         <v>0</v>
@@ -4843,25 +5383,25 @@
     </row>
     <row r="19" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H19" s="35" t="n">
         <v>0</v>
@@ -4890,25 +5430,25 @@
     </row>
     <row r="20" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H20" s="35" t="n">
         <v>0</v>
@@ -4937,25 +5477,25 @@
     </row>
     <row r="21" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H21" s="35" t="n">
         <v>0</v>
@@ -4984,25 +5524,25 @@
     </row>
     <row r="22" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H22" s="35" t="n">
         <v>0</v>
@@ -5031,25 +5571,25 @@
     </row>
     <row r="23" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F23" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H23" s="35" t="n">
         <v>0</v>
@@ -5078,25 +5618,25 @@
     </row>
     <row r="24" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H24" s="35" t="n">
         <v>0</v>
@@ -5125,25 +5665,25 @@
     </row>
     <row r="25" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H25" s="35" t="n">
         <v>0</v>
@@ -5172,25 +5712,25 @@
     </row>
     <row r="26" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H26" s="35" t="n">
         <v>0</v>
@@ -5219,25 +5759,25 @@
     </row>
     <row r="27" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="37" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H27" s="35" t="n">
         <v>0</v>
@@ -5266,25 +5806,25 @@
     </row>
     <row r="28" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="37" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F28" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H28" s="35" t="n">
         <v>0</v>
@@ -5313,25 +5853,25 @@
     </row>
     <row r="29" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H29" s="35" t="n">
         <v>0</v>
@@ -5360,25 +5900,25 @@
     </row>
     <row r="30" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H30" s="35" t="n">
         <v>0</v>
@@ -5407,25 +5947,25 @@
     </row>
     <row r="31" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="37" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H31" s="35" t="n">
         <v>0</v>
@@ -5454,28 +5994,28 @@
     </row>
     <row r="32" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="37" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I32" s="35" t="n">
         <v>0</v>
@@ -5501,28 +6041,28 @@
     </row>
     <row r="33" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H33" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I33" s="35" t="n">
         <v>0</v>
@@ -5540,39 +6080,39 @@
         <v>0</v>
       </c>
       <c r="N33" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O33" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="37" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F34" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J34" s="35" t="n">
         <v>0</v>
@@ -5587,42 +6127,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K35" s="35" t="n">
         <v>0</v>
@@ -5634,80 +6174,80 @@
         <v>0</v>
       </c>
       <c r="N35" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L36" s="35" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M36" s="35" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O36" s="36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" s="19" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="37" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H37" s="35" t="n">
         <v>0</v>
@@ -5728,33 +6268,33 @@
         <v>0</v>
       </c>
       <c r="N37" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O37" s="36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" s="19" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H38" s="35" t="n">
         <v>0</v>
@@ -5775,33 +6315,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="38" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O38" s="36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" s="19" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="37" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H39" s="35" t="n">
         <v>0</v>
@@ -5822,33 +6362,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" s="19" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="37" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F40" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G40" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H40" s="35" t="n">
         <v>0</v>
@@ -5869,33 +6409,33 @@
         <v>0</v>
       </c>
       <c r="N40" s="38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O40" s="36" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="37" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H41" s="35" t="n">
         <v>0</v>
@@ -5924,25 +6464,25 @@
     </row>
     <row r="42" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="37" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H42" s="35" t="n">
         <v>0</v>
@@ -5971,25 +6511,25 @@
     </row>
     <row r="43" s="19" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H43" s="35" t="n">
         <v>0</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="221">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -1983,7 +1983,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="R:R A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2008,8 +2008,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="R:R D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2043,12 +2043,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -2084,7 +2087,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="1" sqref="R:R O8"/>
+      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2546,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R:R"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4948,7 +4951,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="R:R A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5176,7 +5179,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="1" sqref="R:R N3"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
-    <t xml:space="preserve">gameroomId:Fish.Room;x_id:Fish.Room;y.id:Fish.Room;y.num:Fish.Room</t>
+    <t xml:space="preserve">gameroomId:Fish.Room;x_id:Fish.Room;y_id:Fish.Room;y_num:Fish.Room;item:Fish.Room;</t>
   </si>
   <si>
     <t xml:space="preserve">CtrlLevel</t>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2550,7 +2550,7 @@
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R1" activeCellId="0" sqref="R1"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -187,7 +187,7 @@
     <t xml:space="preserve">gameId,roomId,gunId</t>
   </si>
   <si>
-    <t xml:space="preserve">gameroomId:Fish.Room;x_id:Fish.Room;y_id:Fish.Room;y_num:Fish.Room;item:Fish.Room;</t>
+    <t xml:space="preserve">gameroomId:Fish.Room|Fish.CtrlLevel;x_id:Fish.Room|Fish.CtrlLevel;y_id:Fish.Room|Fish.CtrlLevel;y_num:Fish.Room|Fish.CtrlLevel;item:Fish.Room|Fish.CtrlLevel;</t>
   </si>
   <si>
     <t xml:space="preserve">CtrlLevel</t>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="221">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -181,6 +181,9 @@
     <t xml:space="preserve">gameId,roomId</t>
   </si>
   <si>
+    <t xml:space="preserve">gameId</t>
+  </si>
+  <si>
     <t xml:space="preserve">GunValue</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">roomId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gameId</t>
   </si>
   <si>
     <t xml:space="preserve">gameName</t>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2042,29 +2042,32 @@
       <c r="B2" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2110,13 +2113,13 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2565,16 +2568,16 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>52</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="204">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">gameId,roomId,gunId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gameroomId:Fish.Room|Fish.CtrlLevel;x_id:Fish.Room|Fish.CtrlLevel;y_id:Fish.Room|Fish.CtrlLevel;y_num:Fish.Room|Fish.CtrlLevel;item:Fish.Room|Fish.CtrlLevel;</t>
   </si>
   <si>
     <t xml:space="preserve">CtrlLevel</t>
@@ -445,21 +442,6 @@
     <t xml:space="preserve">gameroomId</t>
   </si>
   <si>
-    <t xml:space="preserve">x_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y_num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_num</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -560,39 +542,6 @@
       </rPr>
       <t xml:space="preserve">ID</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">游房1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房间1id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房间1num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房间2id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">游房间2num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemid1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item1num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">itemid2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item2num</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -2008,8 +1957,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2056,18 +2005,15 @@
       <c r="C3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2036,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8"/>
+      <selection pane="topLeft" activeCell="E42" activeCellId="0" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2113,152 +2059,152 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,7 +2268,7 @@
         <v>2004</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -2331,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>4</v>
@@ -2372,7 +2318,7 @@
         <v>2004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -2381,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>4</v>
@@ -2422,7 +2368,7 @@
         <v>2004</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -2431,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>4</v>
@@ -2472,7 +2418,7 @@
         <v>2004</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -2481,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>4</v>
@@ -2553,7 +2499,7 @@
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2562,170 +2508,104 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2747,2159 +2627,817 @@
       <c r="F4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="16" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C8" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C9" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C10" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C11" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C12" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C13" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C14" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C15" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C16" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C18" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C19" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C20" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C21" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C22" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C23" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C24" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C25" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C26" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C27" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C28" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C29" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q30" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C31" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q31" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="C32" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q32" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C33" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C34" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q34" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C35" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q35" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C36" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q36" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C37" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C38" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q38" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C39" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q39" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C40" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q40" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C41" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q41" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C42" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q42" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C43" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q43" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C44" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="P44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q44" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4967,35 +3505,35 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5011,123 +3549,123 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5181,7 +3719,7 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -5203,143 +3741,143 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="I3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="J3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="K3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="M3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="N3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5391,25 +3929,25 @@
     </row>
     <row r="5" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0</v>
@@ -5438,25 +3976,25 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0</v>
@@ -5485,25 +4023,25 @@
     </row>
     <row r="7" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0</v>
@@ -5532,25 +4070,25 @@
     </row>
     <row r="8" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0</v>
@@ -5579,25 +4117,25 @@
     </row>
     <row r="9" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0</v>
@@ -5626,25 +4164,25 @@
     </row>
     <row r="10" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
@@ -5673,25 +4211,25 @@
     </row>
     <row r="11" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>0</v>
@@ -5720,25 +4258,25 @@
     </row>
     <row r="12" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>0</v>
@@ -5767,25 +4305,25 @@
     </row>
     <row r="13" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0</v>
@@ -5814,25 +4352,25 @@
     </row>
     <row r="14" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0</v>
@@ -5861,25 +4399,25 @@
     </row>
     <row r="15" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0</v>
@@ -5908,25 +4446,25 @@
     </row>
     <row r="16" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0</v>
@@ -5955,25 +4493,25 @@
     </row>
     <row r="17" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>0</v>
@@ -6002,25 +4540,25 @@
     </row>
     <row r="18" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H18" s="34" t="n">
         <v>0</v>
@@ -6049,25 +4587,25 @@
     </row>
     <row r="19" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H19" s="34" t="n">
         <v>0</v>
@@ -6096,25 +4634,25 @@
     </row>
     <row r="20" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H20" s="34" t="n">
         <v>0</v>
@@ -6143,25 +4681,25 @@
     </row>
     <row r="21" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H21" s="34" t="n">
         <v>0</v>
@@ -6190,25 +4728,25 @@
     </row>
     <row r="22" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H22" s="34" t="n">
         <v>0</v>
@@ -6237,25 +4775,25 @@
     </row>
     <row r="23" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="36" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H23" s="34" t="n">
         <v>0</v>
@@ -6284,25 +4822,25 @@
     </row>
     <row r="24" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H24" s="34" t="n">
         <v>0</v>
@@ -6331,25 +4869,25 @@
     </row>
     <row r="25" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>132</v>
-      </c>
       <c r="G25" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H25" s="34" t="n">
         <v>0</v>
@@ -6378,25 +4916,25 @@
     </row>
     <row r="26" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="36" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H26" s="34" t="n">
         <v>0</v>
@@ -6425,25 +4963,25 @@
     </row>
     <row r="27" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="36" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H27" s="34" t="n">
         <v>0</v>
@@ -6472,25 +5010,25 @@
     </row>
     <row r="28" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="36" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H28" s="34" t="n">
         <v>0</v>
@@ -6519,25 +5057,25 @@
     </row>
     <row r="29" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="36" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H29" s="34" t="n">
         <v>0</v>
@@ -6566,25 +5104,25 @@
     </row>
     <row r="30" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="36" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H30" s="34" t="n">
         <v>0</v>
@@ -6613,25 +5151,25 @@
     </row>
     <row r="31" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="36" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H31" s="34" t="n">
         <v>0</v>
@@ -6660,28 +5198,28 @@
     </row>
     <row r="32" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="36" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I32" s="34" t="n">
         <v>0</v>
@@ -6707,28 +5245,28 @@
     </row>
     <row r="33" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I33" s="34" t="n">
         <v>0</v>
@@ -6746,39 +5284,39 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="36" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J34" s="34" t="n">
         <v>0</v>
@@ -6793,42 +5331,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="36" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K35" s="34" t="n">
         <v>0</v>
@@ -6840,80 +5378,80 @@
         <v>0</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="M36" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H37" s="34" t="n">
         <v>0</v>
@@ -6934,33 +5472,33 @@
         <v>0</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="36" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H38" s="34" t="n">
         <v>0</v>
@@ -6981,33 +5519,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="36" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H39" s="34" t="n">
         <v>0</v>
@@ -7028,33 +5566,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H40" s="34" t="n">
         <v>0</v>
@@ -7075,33 +5613,33 @@
         <v>0</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="36" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H41" s="34" t="n">
         <v>0</v>
@@ -7130,25 +5668,25 @@
     </row>
     <row r="42" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H42" s="34" t="n">
         <v>0</v>
@@ -7177,25 +5715,25 @@
     </row>
     <row r="43" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="H43" s="34" t="n">
         <v>0</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="205">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t xml:space="preserve">check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createSql</t>
   </si>
   <si>
     <t xml:space="preserve">Room</t>
@@ -1955,10 +1958,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1983,37 +1986,43 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2059,152 +2068,152 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="8" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2268,7 +2277,7 @@
         <v>2004</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1</v>
@@ -2277,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>4</v>
@@ -2318,7 +2327,7 @@
         <v>2004</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>1</v>
@@ -2327,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>4</v>
@@ -2368,7 +2377,7 @@
         <v>2004</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>1</v>
@@ -2377,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>4</v>
@@ -2418,7 +2427,7 @@
         <v>2004</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>1</v>
@@ -2427,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>4</v>
@@ -2514,22 +2523,22 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="ALY1" s="0"/>
       <c r="ALZ1" s="0"/>
@@ -2546,22 +2555,22 @@
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="ALY2" s="0"/>
       <c r="ALZ2" s="0"/>
@@ -2578,22 +2587,22 @@
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="ALY3" s="0"/>
       <c r="ALZ3" s="0"/>
@@ -2642,802 +2651,802 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C13" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="C15" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C21" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="C25" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C33" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="C35" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C37" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C39" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C40" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C41" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C42" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C43" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3505,35 +3514,35 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3549,123 +3558,123 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3719,7 +3728,7 @@
   </sheetPr>
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -3741,143 +3750,143 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M1" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N1" s="23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J2" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N2" s="26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O2" s="26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>42</v>
-      </c>
       <c r="O3" s="23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3929,25 +3938,25 @@
     </row>
     <row r="5" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0</v>
@@ -3976,25 +3985,25 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0</v>
@@ -4023,25 +4032,25 @@
     </row>
     <row r="7" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0</v>
@@ -4070,25 +4079,25 @@
     </row>
     <row r="8" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0</v>
@@ -4117,25 +4126,25 @@
     </row>
     <row r="9" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0</v>
@@ -4164,25 +4173,25 @@
     </row>
     <row r="10" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
@@ -4211,25 +4220,25 @@
     </row>
     <row r="11" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>0</v>
@@ -4258,25 +4267,25 @@
     </row>
     <row r="12" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>0</v>
@@ -4305,25 +4314,25 @@
     </row>
     <row r="13" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0</v>
@@ -4352,25 +4361,25 @@
     </row>
     <row r="14" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0</v>
@@ -4399,25 +4408,25 @@
     </row>
     <row r="15" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0</v>
@@ -4446,25 +4455,25 @@
     </row>
     <row r="16" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0</v>
@@ -4493,25 +4502,25 @@
     </row>
     <row r="17" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>0</v>
@@ -4540,25 +4549,25 @@
     </row>
     <row r="18" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H18" s="34" t="n">
         <v>0</v>
@@ -4587,25 +4596,25 @@
     </row>
     <row r="19" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H19" s="34" t="n">
         <v>0</v>
@@ -4634,25 +4643,25 @@
     </row>
     <row r="20" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="34" t="n">
         <v>0</v>
@@ -4681,25 +4690,25 @@
     </row>
     <row r="21" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H21" s="34" t="n">
         <v>0</v>
@@ -4728,25 +4737,25 @@
     </row>
     <row r="22" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H22" s="34" t="n">
         <v>0</v>
@@ -4775,25 +4784,25 @@
     </row>
     <row r="23" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H23" s="34" t="n">
         <v>0</v>
@@ -4822,25 +4831,25 @@
     </row>
     <row r="24" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H24" s="34" t="n">
         <v>0</v>
@@ -4869,25 +4878,25 @@
     </row>
     <row r="25" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H25" s="34" t="n">
         <v>0</v>
@@ -4916,25 +4925,25 @@
     </row>
     <row r="26" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" s="34" t="n">
         <v>0</v>
@@ -4963,25 +4972,25 @@
     </row>
     <row r="27" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H27" s="34" t="n">
         <v>0</v>
@@ -5010,25 +5019,25 @@
     </row>
     <row r="28" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H28" s="34" t="n">
         <v>0</v>
@@ -5057,25 +5066,25 @@
     </row>
     <row r="29" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H29" s="34" t="n">
         <v>0</v>
@@ -5104,25 +5113,25 @@
     </row>
     <row r="30" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F30" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H30" s="34" t="n">
         <v>0</v>
@@ -5151,25 +5160,25 @@
     </row>
     <row r="31" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H31" s="34" t="n">
         <v>0</v>
@@ -5198,28 +5207,28 @@
     </row>
     <row r="32" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I32" s="34" t="n">
         <v>0</v>
@@ -5245,28 +5254,28 @@
     </row>
     <row r="33" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I33" s="34" t="n">
         <v>0</v>
@@ -5284,39 +5293,39 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O33" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="O33" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J34" s="34" t="n">
         <v>0</v>
@@ -5331,42 +5340,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O34" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="O34" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K35" s="34" t="n">
         <v>0</v>
@@ -5378,80 +5387,80 @@
         <v>0</v>
       </c>
       <c r="N35" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="O35" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M36" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="O36" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="O36" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H37" s="34" t="n">
         <v>0</v>
@@ -5472,33 +5481,33 @@
         <v>0</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H38" s="34" t="n">
         <v>0</v>
@@ -5519,33 +5528,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H39" s="34" t="n">
         <v>0</v>
@@ -5566,33 +5575,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="O39" s="35" t="s">
         <v>200</v>
-      </c>
-      <c r="O39" s="35" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="40" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H40" s="34" t="n">
         <v>0</v>
@@ -5613,33 +5622,33 @@
         <v>0</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H41" s="34" t="n">
         <v>0</v>
@@ -5668,25 +5677,25 @@
     </row>
     <row r="42" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H42" s="34" t="n">
         <v>0</v>
@@ -5715,25 +5724,25 @@
     </row>
     <row r="43" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H43" s="34" t="n">
         <v>0</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -2001,7 +2001,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId2"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="203">
   <si>
     <t xml:space="preserve">sheet_name</t>
   </si>
@@ -442,9 +442,6 @@
     <t xml:space="preserve">gunId</t>
   </si>
   <si>
-    <t xml:space="preserve">gameroomId</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -520,30 +517,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="文泉驿点阵正黑"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">游戏房间</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
     </r>
   </si>
   <si>
@@ -1960,8 +1933,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2507,8 +2480,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2517,8 +2490,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.54"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2537,9 +2509,7 @@
       <c r="E1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>53</v>
-      </c>
+      <c r="ALX1" s="0"/>
       <c r="ALY1" s="0"/>
       <c r="ALZ1" s="0"/>
       <c r="AMA1" s="0"/>
@@ -2555,23 +2525,21 @@
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="ALX2" s="0"/>
       <c r="ALY2" s="0"/>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
@@ -2601,9 +2569,7 @@
       <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="ALX3" s="0"/>
       <c r="ALY3" s="0"/>
       <c r="ALZ3" s="0"/>
       <c r="AMA3" s="0"/>
@@ -2633,9 +2599,7 @@
       <c r="E4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="n">
-        <v>3</v>
-      </c>
+      <c r="ALX4" s="0"/>
       <c r="ALY4" s="0"/>
       <c r="ALZ4" s="0"/>
       <c r="AMA4" s="0"/>
@@ -2651,802 +2615,682 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C19" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C21" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C24" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C25" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C32" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C34" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C37" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C38" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="16" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C40" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C41" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C42" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="16" t="n">
         <v>2004</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3514,24 +3358,24 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3558,123 +3402,123 @@
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3750,96 +3594,96 @@
   <sheetData>
     <row r="1" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>174</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="E2" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="H2" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="I2" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="O2" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3938,25 +3782,25 @@
     </row>
     <row r="5" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H5" s="34" t="n">
         <v>0</v>
@@ -3985,25 +3829,25 @@
     </row>
     <row r="6" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>62</v>
-      </c>
       <c r="F6" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H6" s="34" t="n">
         <v>0</v>
@@ -4032,25 +3876,25 @@
     </row>
     <row r="7" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="36" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" s="34" t="n">
         <v>0</v>
@@ -4079,25 +3923,25 @@
     </row>
     <row r="8" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H8" s="34" t="n">
         <v>0</v>
@@ -4126,25 +3970,25 @@
     </row>
     <row r="9" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H9" s="34" t="n">
         <v>0</v>
@@ -4173,25 +4017,25 @@
     </row>
     <row r="10" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
@@ -4220,25 +4064,25 @@
     </row>
     <row r="11" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H11" s="34" t="n">
         <v>0</v>
@@ -4267,25 +4111,25 @@
     </row>
     <row r="12" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" s="34" t="n">
         <v>0</v>
@@ -4314,25 +4158,25 @@
     </row>
     <row r="13" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H13" s="34" t="n">
         <v>0</v>
@@ -4361,25 +4205,25 @@
     </row>
     <row r="14" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H14" s="34" t="n">
         <v>0</v>
@@ -4408,25 +4252,25 @@
     </row>
     <row r="15" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H15" s="34" t="n">
         <v>0</v>
@@ -4455,25 +4299,25 @@
     </row>
     <row r="16" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H16" s="34" t="n">
         <v>0</v>
@@ -4502,25 +4346,25 @@
     </row>
     <row r="17" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H17" s="34" t="n">
         <v>0</v>
@@ -4549,25 +4393,25 @@
     </row>
     <row r="18" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H18" s="34" t="n">
         <v>0</v>
@@ -4596,25 +4440,25 @@
     </row>
     <row r="19" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H19" s="34" t="n">
         <v>0</v>
@@ -4643,25 +4487,25 @@
     </row>
     <row r="20" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H20" s="34" t="n">
         <v>0</v>
@@ -4690,25 +4534,25 @@
     </row>
     <row r="21" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H21" s="34" t="n">
         <v>0</v>
@@ -4737,25 +4581,25 @@
     </row>
     <row r="22" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F22" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H22" s="34" t="n">
         <v>0</v>
@@ -4784,25 +4628,25 @@
     </row>
     <row r="23" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H23" s="34" t="n">
         <v>0</v>
@@ -4831,25 +4675,25 @@
     </row>
     <row r="24" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F24" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H24" s="34" t="n">
         <v>0</v>
@@ -4878,25 +4722,25 @@
     </row>
     <row r="25" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H25" s="34" t="n">
         <v>0</v>
@@ -4925,25 +4769,25 @@
     </row>
     <row r="26" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H26" s="34" t="n">
         <v>0</v>
@@ -4972,25 +4816,25 @@
     </row>
     <row r="27" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H27" s="34" t="n">
         <v>0</v>
@@ -5019,25 +4863,25 @@
     </row>
     <row r="28" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H28" s="34" t="n">
         <v>0</v>
@@ -5066,25 +4910,25 @@
     </row>
     <row r="29" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F29" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H29" s="34" t="n">
         <v>0</v>
@@ -5113,25 +4957,25 @@
     </row>
     <row r="30" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="36" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>65</v>
-      </c>
       <c r="F30" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H30" s="34" t="n">
         <v>0</v>
@@ -5160,25 +5004,25 @@
     </row>
     <row r="31" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H31" s="34" t="n">
         <v>0</v>
@@ -5207,28 +5051,28 @@
     </row>
     <row r="32" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I32" s="34" t="n">
         <v>0</v>
@@ -5254,28 +5098,28 @@
     </row>
     <row r="33" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>116</v>
-      </c>
       <c r="G33" s="34" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I33" s="34" t="n">
         <v>0</v>
@@ -5293,39 +5137,39 @@
         <v>0</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J34" s="34" t="n">
         <v>0</v>
@@ -5340,42 +5184,42 @@
         <v>0</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B35" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>64</v>
-      </c>
       <c r="H35" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K35" s="34" t="n">
         <v>0</v>
@@ -5387,80 +5231,80 @@
         <v>0</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L36" s="34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M36" s="34" t="n">
         <v>0</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O36" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B37" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="E37" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H37" s="34" t="n">
         <v>0</v>
@@ -5481,33 +5325,33 @@
         <v>0</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="E38" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H38" s="34" t="n">
         <v>0</v>
@@ -5528,33 +5372,33 @@
         <v>0</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>78</v>
-      </c>
       <c r="E39" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F39" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H39" s="34" t="n">
         <v>0</v>
@@ -5575,33 +5419,33 @@
         <v>0</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" s="18" customFormat="true" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G40" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H40" s="34" t="n">
         <v>0</v>
@@ -5622,33 +5466,33 @@
         <v>0</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O40" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F41" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H41" s="34" t="n">
         <v>0</v>
@@ -5677,25 +5521,25 @@
     </row>
     <row r="42" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H42" s="34" t="n">
         <v>0</v>
@@ -5724,25 +5568,25 @@
     </row>
     <row r="43" s="18" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H43" s="34" t="n">
         <v>0</v>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -1305,7 +1305,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1371,18 +1371,6 @@
       <name val="文泉驿点阵正黑"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF6A8759"/>
-      <name val="文泉驿点阵正黑"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1515,7 +1503,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1560,12 +1548,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1573,34 +1565,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1696,7 +1676,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C23:C24 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,7 +1702,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="1" sqref="C23:C24 E2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1806,7 +1786,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C23:C24"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2044,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>40</v>
@@ -2094,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>46</v>
@@ -2144,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>47</v>
@@ -2194,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>48</v>
@@ -2244,9 +2224,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H9" s="2" t="n">
@@ -2294,9 +2274,9 @@
         <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
@@ -2344,9 +2324,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="2" t="n">
@@ -2394,9 +2374,9 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="2" t="n">
@@ -2444,9 +2424,9 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="2" t="n">
@@ -2494,9 +2474,9 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H14" s="2" t="n">
@@ -2544,9 +2524,9 @@
         <v>1</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="2" t="n">
@@ -2594,9 +2574,9 @@
         <v>1</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="2" t="n">
@@ -2644,9 +2624,9 @@
         <v>1</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H17" s="2" t="n">
@@ -2694,9 +2674,9 @@
         <v>1</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="H18" s="2" t="n">
@@ -2744,9 +2724,9 @@
         <v>1</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="2" t="n">
@@ -2794,9 +2774,9 @@
         <v>1</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="H20" s="2" t="n">
@@ -2869,7 +2849,7 @@
   <dimension ref="A1:AMJ164"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C126" activeCellId="1" sqref="C23:C24 C126"/>
+      <selection pane="topLeft" activeCell="C126" activeCellId="0" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2881,20 +2861,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="9.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>53</v>
       </c>
       <c r="ALX1" s="0"/>
@@ -2911,20 +2891,20 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>58</v>
       </c>
       <c r="ALX2" s="0"/>
@@ -2941,20 +2921,20 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>43</v>
       </c>
       <c r="ALX3" s="0"/>
@@ -2971,20 +2951,20 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" s="17" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+    <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="14" t="n">
         <v>3</v>
       </c>
       <c r="ALX4" s="0"/>
@@ -3002,2722 +2982,2722 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="18" t="n">
+      <c r="C6" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="18" t="n">
+      <c r="C7" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="18" t="n">
+      <c r="C8" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="18" t="n">
+      <c r="C10" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="18" t="n">
+      <c r="C11" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="18" t="n">
+      <c r="C12" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="18" t="n">
+      <c r="C13" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="18" t="n">
+      <c r="C24" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="18" t="n">
+      <c r="C25" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="18" t="n">
+      <c r="C26" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="18" t="n">
+      <c r="C27" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="18" t="n">
+      <c r="C29" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="18" t="n">
+      <c r="C30" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="18" t="n">
+      <c r="C31" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="18" t="n">
+      <c r="C32" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="18" t="n">
+      <c r="C33" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="18" t="n">
+      <c r="C34" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="18" t="n">
+      <c r="C35" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="18" t="n">
+      <c r="C36" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="18" t="n">
+      <c r="C37" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="18" t="n">
+      <c r="C38" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="18" t="n">
+      <c r="C39" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="18" t="n">
+      <c r="C40" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="18" t="n">
+      <c r="C41" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="18" t="n">
+      <c r="C42" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C43" s="18" t="n">
+      <c r="C43" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C44" s="18" t="n">
+      <c r="C44" s="16" t="n">
         <v>2004</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="18" t="n">
+      <c r="C45" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="18" t="n">
+      <c r="C46" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="18" t="n">
+      <c r="C47" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="18" t="n">
+      <c r="C48" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="18" t="n">
+      <c r="C49" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="18" t="n">
+      <c r="C50" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="18" t="n">
+      <c r="C51" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="18" t="n">
+      <c r="C52" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="18" t="n">
+      <c r="C53" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="18" t="n">
+      <c r="C54" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D54" s="18" t="s">
+      <c r="D54" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="18" t="n">
+      <c r="C55" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D55" s="18" t="s">
+      <c r="D55" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="18" t="n">
+      <c r="C56" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="18" t="n">
+      <c r="C57" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="18" t="n">
+      <c r="C58" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="18" t="n">
+      <c r="C59" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="18" t="n">
+      <c r="C60" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="18" t="n">
+      <c r="C61" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="18" t="n">
+      <c r="C62" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="18" t="n">
+      <c r="C63" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="18" t="n">
+      <c r="C64" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="18" t="n">
+      <c r="C65" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="18" t="n">
+      <c r="C66" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
+      <c r="A67" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="18" t="n">
+      <c r="C67" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="18" t="n">
+      <c r="C68" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
+      <c r="A69" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="18" t="n">
+      <c r="C69" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="18" t="n">
+      <c r="C70" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="18" t="s">
+      <c r="A71" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C71" s="18" t="n">
+      <c r="C71" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C72" s="18" t="n">
+      <c r="C72" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="18" t="n">
+      <c r="C73" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C74" s="18" t="n">
+      <c r="C74" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C75" s="18" t="n">
+      <c r="C75" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="18" t="s">
+      <c r="A76" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C76" s="18" t="n">
+      <c r="C76" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="18" t="n">
+      <c r="C77" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E77" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="18" t="s">
+      <c r="A78" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="18" t="n">
+      <c r="C78" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C79" s="18" t="n">
+      <c r="C79" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="18" t="n">
+      <c r="C80" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="18" t="s">
+      <c r="A81" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C81" s="18" t="n">
+      <c r="C81" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="18" t="s">
+      <c r="A82" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="18" t="n">
+      <c r="C82" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="18" t="s">
+      <c r="A83" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C83" s="18" t="n">
+      <c r="C83" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D83" s="18" t="s">
+      <c r="D83" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="18" t="s">
+      <c r="A84" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="18" t="n">
+      <c r="C84" s="16" t="n">
         <v>2003</v>
       </c>
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C85" s="18" t="n">
+      <c r="C85" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D85" s="18" t="s">
+      <c r="D85" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="18" t="n">
+      <c r="C86" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="18" t="n">
+      <c r="C87" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D87" s="18" t="s">
+      <c r="D87" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="18" t="s">
+      <c r="A88" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C88" s="18" t="n">
+      <c r="C88" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D88" s="18" t="s">
+      <c r="D88" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="18" t="n">
+      <c r="C89" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D89" s="18" t="s">
+      <c r="D89" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C90" s="18" t="n">
+      <c r="C90" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="18" t="s">
+      <c r="A91" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C91" s="18" t="n">
+      <c r="C91" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D91" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="18" t="s">
+      <c r="A92" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C92" s="18" t="n">
+      <c r="C92" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="18" t="s">
+      <c r="A93" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="18" t="n">
+      <c r="C93" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="18" t="s">
+      <c r="A94" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C94" s="18" t="n">
+      <c r="C94" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D94" s="18" t="s">
+      <c r="D94" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="18" t="s">
+      <c r="A95" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="18" t="n">
+      <c r="C95" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D95" s="18" t="s">
+      <c r="D95" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C96" s="18" t="n">
+      <c r="C96" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="18" t="s">
+      <c r="A97" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C97" s="18" t="n">
+      <c r="C97" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D97" s="18" t="s">
+      <c r="D97" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="18" t="s">
+      <c r="A98" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C98" s="18" t="n">
+      <c r="C98" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="18" t="s">
+      <c r="A99" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="18" t="n">
+      <c r="C99" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E99" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="18" t="s">
+      <c r="A100" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C100" s="18" t="n">
+      <c r="C100" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="18" t="s">
+      <c r="A101" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C101" s="18" t="n">
+      <c r="C101" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D101" s="18" t="s">
+      <c r="D101" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E101" s="18" t="s">
+      <c r="E101" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="18" t="s">
+      <c r="A102" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C102" s="18" t="n">
+      <c r="C102" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E102" s="18" t="s">
+      <c r="E102" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="18" t="s">
+      <c r="A103" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="18" t="n">
+      <c r="C103" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="18" t="s">
+      <c r="A104" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C104" s="18" t="n">
+      <c r="C104" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D104" s="18" t="s">
+      <c r="D104" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="18" t="s">
+      <c r="E104" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C105" s="18" t="n">
+      <c r="C105" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C106" s="18" t="n">
+      <c r="C106" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D106" s="18" t="s">
+      <c r="D106" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E106" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="18" t="n">
+      <c r="C107" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C108" s="18" t="n">
+      <c r="C108" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D108" s="18" t="s">
+      <c r="D108" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E108" s="18" t="s">
+      <c r="E108" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="18" t="n">
+      <c r="C109" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="D109" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="18" t="n">
+      <c r="C110" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="D110" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E110" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="18" t="n">
+      <c r="C111" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="D111" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E111" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="18" t="n">
+      <c r="C112" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="D112" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E112" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="18" t="n">
+      <c r="C113" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="18" t="n">
+      <c r="C114" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="18" t="n">
+      <c r="C115" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="18" t="s">
+      <c r="A116" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="18" t="n">
+      <c r="C116" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="18" t="s">
+      <c r="A117" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="18" t="n">
+      <c r="C117" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D117" s="18" t="s">
+      <c r="D117" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E117" s="18" t="s">
+      <c r="E117" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C118" s="18" t="n">
+      <c r="C118" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="18" t="s">
+      <c r="A119" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="18" t="n">
+      <c r="C119" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D119" s="18" t="s">
+      <c r="D119" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E119" s="18" t="s">
+      <c r="E119" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C120" s="18" t="n">
+      <c r="C120" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D120" s="18" t="s">
+      <c r="D120" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E120" s="18" t="s">
+      <c r="E120" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="18" t="s">
+      <c r="A121" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C121" s="18" t="n">
+      <c r="C121" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="18" t="s">
+      <c r="A122" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="18" t="n">
+      <c r="C122" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D122" s="18" t="s">
+      <c r="D122" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E122" s="18" t="s">
+      <c r="E122" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="18" t="s">
+      <c r="A123" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="18" t="n">
+      <c r="C123" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D123" s="18" t="s">
+      <c r="D123" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E123" s="18" t="s">
+      <c r="E123" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18" t="s">
+      <c r="A124" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="18" t="n">
+      <c r="C124" s="16" t="n">
         <v>2002</v>
       </c>
-      <c r="D124" s="18" t="s">
+      <c r="D124" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="18" t="s">
+      <c r="A125" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C125" s="18" t="n">
+      <c r="C125" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D125" s="18" t="s">
+      <c r="D125" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E125" s="18" t="s">
+      <c r="E125" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="18" t="s">
+      <c r="A126" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C126" s="18" t="n">
+      <c r="C126" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D126" s="18" t="s">
+      <c r="D126" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E126" s="18" t="s">
+      <c r="E126" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="18" t="s">
+      <c r="A127" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C127" s="18" t="n">
+      <c r="C127" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D127" s="18" t="s">
+      <c r="D127" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E127" s="18" t="s">
+      <c r="E127" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="18" t="s">
+      <c r="A128" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C128" s="18" t="n">
+      <c r="C128" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D128" s="18" t="s">
+      <c r="D128" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E128" s="18" t="s">
+      <c r="E128" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="18" t="s">
+      <c r="A129" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C129" s="18" t="n">
+      <c r="C129" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D129" s="18" t="s">
+      <c r="D129" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E129" s="18" t="s">
+      <c r="E129" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="18" t="n">
+      <c r="C130" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="18" t="s">
+      <c r="A131" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="18" t="n">
+      <c r="C131" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D131" s="18" t="s">
+      <c r="D131" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="18" t="s">
+      <c r="A132" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="18" t="n">
+      <c r="C132" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="18" t="s">
+      <c r="A133" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C133" s="18" t="n">
+      <c r="C133" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D133" s="18" t="s">
+      <c r="D133" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="18" t="s">
+      <c r="E133" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="18" t="s">
+      <c r="A134" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="18" t="n">
+      <c r="C134" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E134" s="18" t="s">
+      <c r="E134" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="18" t="s">
+      <c r="A135" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C135" s="18" t="n">
+      <c r="C135" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D135" s="18" t="s">
+      <c r="D135" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E135" s="18" t="s">
+      <c r="E135" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="18" t="s">
+      <c r="A136" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C136" s="18" t="n">
+      <c r="C136" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="18" t="s">
+      <c r="A137" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C137" s="18" t="n">
+      <c r="C137" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C138" s="18" t="n">
+      <c r="C138" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="18" t="s">
+      <c r="A139" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C139" s="18" t="n">
+      <c r="C139" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="18" t="s">
+      <c r="A140" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C140" s="18" t="n">
+      <c r="C140" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="18" t="s">
+      <c r="A141" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C141" s="18" t="n">
+      <c r="C141" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D141" s="18" t="s">
+      <c r="D141" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C142" s="18" t="n">
+      <c r="C142" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="18" t="s">
+      <c r="A143" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C143" s="18" t="n">
+      <c r="C143" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="18" t="s">
+      <c r="A144" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C144" s="18" t="n">
+      <c r="C144" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="18" t="s">
+      <c r="A145" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C145" s="18" t="n">
+      <c r="C145" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C146" s="18" t="n">
+      <c r="C146" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="18" t="s">
+      <c r="A147" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C147" s="18" t="n">
+      <c r="C147" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="18" t="s">
+      <c r="A148" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C148" s="18" t="n">
+      <c r="C148" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C149" s="18" t="n">
+      <c r="C149" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D149" s="18" t="s">
+      <c r="D149" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="18" t="s">
+      <c r="A150" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C150" s="18" t="n">
+      <c r="C150" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="18" t="s">
+      <c r="A151" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C151" s="18" t="n">
+      <c r="C151" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="18" t="s">
+      <c r="A152" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C152" s="18" t="n">
+      <c r="C152" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="18" t="s">
+      <c r="A153" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C153" s="18" t="n">
+      <c r="C153" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="18" t="s">
+      <c r="A154" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="18" t="n">
+      <c r="C154" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E154" s="18" t="s">
+      <c r="E154" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="18" t="s">
+      <c r="A155" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C155" s="18" t="n">
+      <c r="C155" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="18" t="s">
+      <c r="A156" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C156" s="18" t="n">
+      <c r="C156" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="18" t="s">
+      <c r="A157" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="C157" s="18" t="n">
+      <c r="C157" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D157" s="18" t="s">
+      <c r="D157" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="18" t="s">
+      <c r="A158" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C158" s="18" t="n">
+      <c r="C158" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="18" t="s">
+      <c r="A159" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C159" s="18" t="n">
+      <c r="C159" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="18" t="s">
+      <c r="A160" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B160" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C160" s="18" t="n">
+      <c r="C160" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="18" t="s">
+      <c r="A161" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B161" s="18" t="s">
+      <c r="B161" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="C161" s="18" t="n">
+      <c r="C161" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C162" s="18" t="n">
+      <c r="C162" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="18" t="s">
+      <c r="A163" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C163" s="18" t="n">
+      <c r="C163" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E163" s="18" t="s">
+      <c r="E163" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="18" t="s">
+      <c r="A164" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B164" s="18" t="s">
+      <c r="B164" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C164" s="18" t="n">
+      <c r="C164" s="16" t="n">
         <v>2001</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E164" s="18" t="s">
+      <c r="E164" s="16" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5773,7 +5753,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="1" sqref="C23:C24 A15"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5784,168 +5764,168 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
+    <row r="2" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="n">
+    <row r="4" s="15" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="n">
+      <c r="C4" s="14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="19" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="19" t="s">
         <v>60</v>
       </c>
     </row>

--- a/game/Fish/Excel/Fish.xlsx
+++ b/game/Fish/Excel/Fish.xlsx
@@ -1786,7 +1786,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2562,7 +2562,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2002</v>
